--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B136EAB-99C8-4894-946A-0E7E2BE16021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5852D6-00AF-4BC9-8982-33E24CC6711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -58,6 +58,20 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <rPh sb="0" eb="4">
+      <t>カイシジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -114,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -122,6 +136,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,205 +475,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="5" max="5" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45444</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>45445</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D31" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A31" si="0">A3+1</f>
+        <f t="shared" ref="A4:A31" si="1">A3+1</f>
         <v>45446</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45447</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45448</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45449</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45450</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45451</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45452</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45453</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45454</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45455</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45456</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45457</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45458</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45459</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45460</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45461</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45462</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45463</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45464</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45465</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45466</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45467</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45468</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45469</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45470</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45471</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45472</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45473</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5852D6-00AF-4BC9-8982-33E24CC6711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3E6671-DF9F-4ECB-AB90-07FCCB4E6EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6月" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -72,6 +72,16 @@
     <t>終了時間</t>
     <rPh sb="0" eb="4">
       <t>シュウリョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL演習、Udemy（マーケティング基礎マスターコース）</t>
+    <rPh sb="3" eb="5">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -128,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,6 +150,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -486,7 +499,7 @@
     <col min="5" max="5" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,18 +516,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45444</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.4375</v>
+      </c>
       <c r="D2" s="3">
         <f>C2-B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>45445</v>
@@ -526,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A31" si="1">A3+1</f>
         <v>45446</v>
@@ -538,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>45447</v>
@@ -550,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>45448</v>
@@ -562,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>45449</v>
@@ -574,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>45450</v>
@@ -585,8 +605,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="3">
+        <f>SUM(D2:D8)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>45451</v>
@@ -598,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>45452</v>
@@ -610,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>45453</v>
@@ -622,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>45454</v>
@@ -634,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>45455</v>
@@ -646,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>45456</v>
@@ -658,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>45457</v>
@@ -669,8 +693,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="3">
+        <f>SUM(D9:D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>45458</v>
@@ -682,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>45459</v>
@@ -694,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>45460</v>
@@ -706,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>45461</v>
@@ -718,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>45462</v>
@@ -730,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>45463</v>
@@ -742,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>45464</v>
@@ -753,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F22" s="3">
+        <f>SUM(D16:D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>45465</v>
@@ -766,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>45466</v>
@@ -778,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>45467</v>
@@ -790,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>45468</v>
@@ -802,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>45469</v>
@@ -814,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>45470</v>
@@ -826,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>45471</v>
@@ -837,8 +869,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F29" s="3">
+        <f>SUM(D23:D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>45472</v>
@@ -850,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>45473</v>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3E6671-DF9F-4ECB-AB90-07FCCB4E6EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBDFAB-4EED-4423-A292-F0A0FB78FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -82,6 +82,13 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Udemy（マーケティング基礎マスターコース）、書籍「ID-POSマーケティング」</t>
+    <rPh sb="24" eb="26">
+      <t>ショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,7 +145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +159,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,12 +501,12 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="35.09765625" customWidth="1"/>
+    <col min="5" max="5" width="35.09765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -512,13 +522,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="B2" s="3">
         <v>0.375</v>
@@ -534,22 +544,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <f>A2+1</f>
-        <v>45445</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>45446</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D31" si="0">C3-B3</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A31" si="1">A3+1</f>
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -561,7 +578,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -573,7 +590,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -585,7 +602,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -597,7 +614,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -607,13 +624,13 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>6.25E-2</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
-        <v>45451</v>
+        <v>45452</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -625,7 +642,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
-        <v>45452</v>
+        <v>45453</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -637,7 +654,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -649,7 +666,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -661,7 +678,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -673,7 +690,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -685,7 +702,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -701,7 +718,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -713,7 +730,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -725,7 +742,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -737,7 +754,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -749,7 +766,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -761,7 +778,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -773,7 +790,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
-        <v>45464</v>
+        <v>45465</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -789,7 +806,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
-        <v>45465</v>
+        <v>45466</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -801,7 +818,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
-        <v>45466</v>
+        <v>45467</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -813,7 +830,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -825,7 +842,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -837,7 +854,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -849,7 +866,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -861,7 +878,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
-        <v>45471</v>
+        <v>45472</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -877,7 +894,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -887,16 +904,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
-        <f t="shared" si="1"/>
-        <v>45473</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBDFAB-4EED-4423-A292-F0A0FB78FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631550D-9C78-465C-9894-57E9B7E9E538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -89,6 +89,22 @@
     <t>Udemy（マーケティング基礎マスターコース）、書籍「ID-POSマーケティング」</t>
     <rPh sb="24" eb="26">
       <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「実践的データ基盤への処方箋」「ID-POSマーケティング」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジッセンテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショホウセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,7 +517,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E7" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -556,23 +572,30 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D31" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D30" si="0">C3-B3</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A31" si="1">A3+1</f>
+        <f t="shared" ref="A4:A30" si="1">A3+1</f>
         <v>45447</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -624,7 +647,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>0.10416666666666663</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631550D-9C78-465C-9894-57E9B7E9E538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2EBCE-53EA-423B-833F-CBF90BD5DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -107,6 +107,9 @@
       <t>ショホウセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「ID-POSマーケティング」</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E6:E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -603,11 +606,18 @@
         <f t="shared" si="1"/>
         <v>45448</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -647,7 +657,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>0.125</v>
+        <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2EBCE-53EA-423B-833F-CBF90BD5DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E527A2A-D7C0-421A-9258-E9A7CC47399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>書籍「ID-POSマーケティング」</t>
+  </si>
+  <si>
+    <t>書籍「実践的データ基盤への処方箋」</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -625,11 +628,18 @@
         <f t="shared" si="1"/>
         <v>45449</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -657,7 +667,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>0.16666666666666674</v>
+        <v>0.18750000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E527A2A-D7C0-421A-9258-E9A7CC47399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D8CFB-DA84-4A26-9FC4-0A976B33F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -523,7 +523,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -659,15 +659,22 @@
         <f t="shared" si="1"/>
         <v>45451</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>0.18750000000000011</v>
+        <v>0.20833333333333348</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D8CFB-DA84-4A26-9FC4-0A976B33F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4EC893-5590-457B-8612-FCAB6B8EADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -523,7 +523,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -682,11 +682,18 @@
         <f t="shared" si="1"/>
         <v>45452</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -762,7 +769,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4EC893-5590-457B-8612-FCAB6B8EADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E834C6-48E0-4113-9F9F-7926CE7F6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -523,7 +523,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -701,11 +701,18 @@
         <f t="shared" si="1"/>
         <v>45453</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.8125</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -769,7 +776,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>2.083333333333337E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E834C6-48E0-4113-9F9F-7926CE7F6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77FA23C-E7D4-4FA8-B34F-16180B4AC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -715,16 +715,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>45454</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -776,7 +783,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77FA23C-E7D4-4FA8-B34F-16180B4AC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534467DE-90DC-4A7A-A35F-0B2294B2DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -523,7 +523,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -739,11 +739,18 @@
         <f t="shared" si="1"/>
         <v>45455</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -783,7 +790,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>6.9444444444444531E-2</v>
+        <v>7.9861111111111271E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534467DE-90DC-4A7A-A35F-0B2294B2DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E3F0EC-545F-4160-B185-92761F49161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -523,7 +523,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -758,8 +758,8 @@
         <f t="shared" si="1"/>
         <v>45456</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -770,11 +770,18 @@
         <f t="shared" si="1"/>
         <v>45457</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -790,7 +797,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>7.9861111111111271E-2</v>
+        <v>0.11111111111111127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E3F0EC-545F-4160-B185-92761F49161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282BB860-9FF2-4208-9A40-D6AC068B918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -523,7 +523,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -789,15 +789,22 @@
         <f t="shared" si="1"/>
         <v>45458</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>0.11111111111111127</v>
+        <v>0.17361111111111127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282BB860-9FF2-4208-9A40-D6AC068B918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8041FD-6B43-4C62-8272-C65462484CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -807,16 +807,23 @@
         <v>0.17361111111111127</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="54" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>45459</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.375</v>
+      </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -892,7 +899,7 @@
       </c>
       <c r="F22" s="3">
         <f>SUM(D16:D22)</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8041FD-6B43-4C62-8272-C65462484CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE5F59-7FF8-4DAC-AECF-7772B9EEC8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -113,6 +113,22 @@
   </si>
   <si>
     <t>書籍「実践的データ基盤への処方箋」</t>
+  </si>
+  <si>
+    <t>書籍「KPIマネジメント入門」「ビジネスダッシュボード設計・実装ガイドブック」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウモン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -522,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -826,16 +842,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>45460</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -899,7 +922,7 @@
       </c>
       <c r="F22" s="3">
         <f>SUM(D16:D22)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.12499999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE5F59-7FF8-4DAC-AECF-7772B9EEC8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44158C2B-0861-458D-B48E-BC8D4F7F5545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -129,6 +129,9 @@
       <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「KPIマネジメント入門」</t>
   </si>
 </sst>
 </file>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -866,11 +869,18 @@
         <f t="shared" si="1"/>
         <v>45461</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -922,7 +932,7 @@
       </c>
       <c r="F22" s="3">
         <f>SUM(D16:D22)</f>
-        <v>0.12499999999999994</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44158C2B-0861-458D-B48E-BC8D4F7F5545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8594E2-1976-4C1C-95F3-20985A691286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>書籍「KPIマネジメント入門」</t>
+  </si>
+  <si>
+    <t>書籍「ビジネスダッシュボード設計・実装ガイドブック」</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -541,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -883,16 +887,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>45462</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -932,7 +943,7 @@
       </c>
       <c r="F22" s="3">
         <f>SUM(D16:D22)</f>
-        <v>0.14583333333333331</v>
+        <v>0.16666666666666657</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8594E2-1976-4C1C-95F3-20985A691286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106F93A1-D353-4B0D-93D0-F3B70ABA369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -546,7 +546,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -906,16 +906,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>45463</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -943,7 +950,7 @@
       </c>
       <c r="F22" s="3">
         <f>SUM(D16:D22)</f>
-        <v>0.16666666666666657</v>
+        <v>0.18749999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106F93A1-D353-4B0D-93D0-F3B70ABA369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B980B-F0ED-4D70-B369-AED1D9C1FE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -937,20 +937,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>45465</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="3">
         <f>SUM(D16:D22)</f>
-        <v>0.18749999999999994</v>
+        <v>0.2083333333333332</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B980B-F0ED-4D70-B369-AED1D9C1FE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35A432F-4EE1-49A3-B74C-91D51130559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -960,16 +960,23 @@
         <v>0.2083333333333332</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>45466</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -977,8 +984,8 @@
         <f t="shared" si="1"/>
         <v>45467</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1045,7 +1052,7 @@
       </c>
       <c r="F29" s="3">
         <f>SUM(D23:D29)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35A432F-4EE1-49A3-B74C-91D51130559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF6F104-B374-436D-AE74-01EBB19CFFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -979,16 +979,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>45467</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1052,7 +1059,7 @@
       </c>
       <c r="F29" s="3">
         <f>SUM(D23:D29)</f>
-        <v>6.25E-2</v>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF6F104-B374-436D-AE74-01EBB19CFFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A335A-8E62-4E5F-8B16-C837CAF8C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -135,6 +135,22 @@
   </si>
   <si>
     <t>書籍「ビジネスダッシュボード設計・実装ガイドブック」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「未来ビジネス図解最新デジタルマーケティング」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ズカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -545,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -998,16 +1014,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>45468</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1059,7 +1082,7 @@
       </c>
       <c r="F29" s="3">
         <f>SUM(D23:D29)</f>
-        <v>7.2916666666666741E-2</v>
+        <v>8.3333333333333481E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A335A-8E62-4E5F-8B16-C837CAF8C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30574B0-823E-4BB1-AA56-5A1A19F42B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -150,6 +150,16 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「マンガでわかる新しいマーケティング」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -562,7 +572,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1045,16 +1055,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>45470</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1082,7 +1099,7 @@
       </c>
       <c r="F29" s="3">
         <f>SUM(D23:D29)</f>
-        <v>8.3333333333333481E-2</v>
+        <v>0.10416666666666685</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30574B0-823E-4BB1-AA56-5A1A19F42B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E5F429-B28E-4D3B-9456-F1FFA5261ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1074,16 +1074,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>45471</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1099,7 +1106,7 @@
       </c>
       <c r="F29" s="3">
         <f>SUM(D23:D29)</f>
-        <v>0.10416666666666685</v>
+        <v>0.14583333333333348</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E5F429-B28E-4D3B-9456-F1FFA5261ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C907AED-02A5-4313-8B5C-3C82119F8AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -162,6 +162,9 @@
       <t>アタラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Udemy（マーケティング基礎マスターコース）</t>
   </si>
 </sst>
 </file>
@@ -571,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1093,20 +1096,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>45472</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.34375</v>
+      </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F29" s="3">
         <f>SUM(D23:D29)</f>
-        <v>0.14583333333333348</v>
+        <v>0.15625000000000017</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C907AED-02A5-4313-8B5C-3C82119F8AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315CD17E-6B89-46D9-ACAB-36941D8F7146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
-    <sheet name="6月" sheetId="1" r:id="rId1"/>
+    <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A30" si="1">A3+1</f>
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>45447</v>
       </c>
       <c r="B4" s="3">
@@ -1119,23 +1119,435 @@
         <v>0.15625000000000017</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>45473</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>45479</v>
+      </c>
+      <c r="F36" s="3">
+        <f>SUM(D30:D36)</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <f t="shared" si="1"/>
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
+        <v>45486</v>
+      </c>
+      <c r="F43" s="3">
+        <f>SUM(D37:D43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>45487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <f t="shared" si="1"/>
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <f t="shared" si="1"/>
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <f t="shared" si="1"/>
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <f t="shared" si="1"/>
+        <v>45493</v>
+      </c>
+      <c r="F50" s="3">
+        <f>SUM(D44:D50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <f t="shared" si="1"/>
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <f t="shared" si="1"/>
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <f t="shared" si="1"/>
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>45500</v>
+      </c>
+      <c r="F57" s="3">
+        <f>SUM(D51:D57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <f t="shared" si="1"/>
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <f t="shared" si="1"/>
+        <v>45507</v>
+      </c>
+      <c r="F64" s="3">
+        <f>SUM(D58:D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <f t="shared" si="1"/>
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
+        <f t="shared" ref="A68:A92" si="2">A67+1</f>
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <f t="shared" si="2"/>
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <f t="shared" si="2"/>
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <f t="shared" si="2"/>
+        <v>45514</v>
+      </c>
+      <c r="F71" s="3">
+        <f>SUM(D65:D71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <f t="shared" si="2"/>
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
+        <f t="shared" si="2"/>
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <f t="shared" si="2"/>
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <f t="shared" si="2"/>
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <f t="shared" si="2"/>
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
+        <f t="shared" si="2"/>
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
+        <f t="shared" si="2"/>
+        <v>45521</v>
+      </c>
+      <c r="F78" s="3">
+        <f>SUM(D72:D78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
+        <f t="shared" si="2"/>
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <f t="shared" si="2"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
+        <f t="shared" si="2"/>
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
+        <f t="shared" si="2"/>
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
+        <f t="shared" si="2"/>
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="2">
+        <f t="shared" si="2"/>
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="2">
+        <f t="shared" si="2"/>
+        <v>45528</v>
+      </c>
+      <c r="F85" s="3">
+        <f>SUM(D79:D85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
+        <f t="shared" si="2"/>
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="2">
+        <f t="shared" si="2"/>
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="2">
+        <f t="shared" si="2"/>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
+        <f t="shared" si="2"/>
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
+        <f t="shared" si="2"/>
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="2">
+        <f t="shared" si="2"/>
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="2">
+        <f t="shared" si="2"/>
+        <v>45535</v>
+      </c>
+      <c r="F92" s="3">
+        <f>SUM(D86:D92)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315CD17E-6B89-46D9-ACAB-36941D8F7146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02411DCC-644A-452F-991C-50974E0FDE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -165,6 +165,31 @@
   </si>
   <si>
     <t>Udemy（マーケティング基礎マスターコース）</t>
+  </si>
+  <si>
+    <t>書籍「マンガでわかる新しいマーケティング」「店長・エリアマネージャーが知っておきたい売上がUPするPOSデータの使い方」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テンチョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -574,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -630,7 +655,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D30" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D66" si="0">C3-B3</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1145,12 +1170,28 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>45475</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1158,27 +1199,43 @@
         <f t="shared" si="1"/>
         <v>45476</v>
       </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>45477</v>
       </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>45478</v>
       </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>45479</v>
       </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F36" s="3">
         <f>SUM(D30:D36)</f>
-        <v>1.041666666666663E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1186,42 +1243,70 @@
         <f t="shared" si="1"/>
         <v>45480</v>
       </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>45481</v>
       </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>45482</v>
       </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>45483</v>
       </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>45484</v>
       </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>45485</v>
       </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>45486</v>
       </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F43" s="3">
         <f>SUM(D37:D43)</f>
         <v>0</v>
@@ -1232,42 +1317,70 @@
         <f t="shared" si="1"/>
         <v>45487</v>
       </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>45488</v>
       </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>45489</v>
       </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>45490</v>
       </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>45491</v>
       </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>45492</v>
       </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>45493</v>
       </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F50" s="3">
         <f>SUM(D44:D50)</f>
         <v>0</v>
@@ -1278,42 +1391,70 @@
         <f t="shared" si="1"/>
         <v>45494</v>
       </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <f t="shared" si="1"/>
         <v>45495</v>
       </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <f t="shared" si="1"/>
         <v>45496</v>
       </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <f t="shared" si="1"/>
         <v>45497</v>
       </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
         <v>45498</v>
       </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
         <v>45499</v>
       </c>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <f t="shared" si="1"/>
         <v>45500</v>
       </c>
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F57" s="3">
         <f>SUM(D51:D57)</f>
         <v>0</v>
@@ -1324,42 +1465,70 @@
         <f t="shared" si="1"/>
         <v>45501</v>
       </c>
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>45502</v>
       </c>
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <f t="shared" si="1"/>
         <v>45503</v>
       </c>
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <f t="shared" si="1"/>
         <v>45504</v>
       </c>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <f t="shared" si="1"/>
         <v>45505</v>
       </c>
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <f t="shared" si="1"/>
         <v>45506</v>
       </c>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
         <v>45507</v>
       </c>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F64" s="3">
         <f>SUM(D58:D64)</f>
         <v>0</v>
@@ -1370,41 +1539,69 @@
         <f t="shared" si="1"/>
         <v>45508</v>
       </c>
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
         <v>45509</v>
       </c>
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>45510</v>
       </c>
+      <c r="D67" s="3">
+        <f t="shared" ref="D67:D92" si="2">C67-B67</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
-        <f t="shared" ref="A68:A92" si="2">A67+1</f>
+        <f t="shared" ref="A68:A92" si="3">A67+1</f>
         <v>45511</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45512</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45513</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45514</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F71" s="3">
         <f>SUM(D65:D71)</f>
@@ -1413,44 +1610,72 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45515</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45516</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45517</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45518</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45519</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45520</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45521</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F78" s="3">
         <f>SUM(D72:D78)</f>
@@ -1459,44 +1684,72 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45522</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45523</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45524</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45525</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45526</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45527</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45528</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F85" s="3">
         <f>SUM(D79:D85)</f>
@@ -1505,44 +1758,72 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45529</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45530</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45531</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45532</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45533</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45534</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45535</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F92" s="3">
         <f>SUM(D86:D92)</f>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02411DCC-644A-452F-991C-50974E0FDE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A11DAB5-00DF-40A3-A9A6-A36BC1B2E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -188,6 +188,13 @@
     </rPh>
     <rPh sb="58" eb="59">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Career Certificates「AI Essentials」、書籍「店長・エリアマネージャーが知っておきたい売上がUPするPOSデータの使い方」</t>
+    <rPh sb="42" eb="44">
+      <t>ショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -599,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1194,14 +1201,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>45476</v>
       </c>
+      <c r="B33" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1235,7 +1251,7 @@
       </c>
       <c r="F36" s="3">
         <f>SUM(D30:D36)</f>
-        <v>5.208333333333337E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A11DAB5-00DF-40A3-A9A6-A36BC1B2E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4FD0A-0F88-41D8-BE64-FB65CEF4C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -607,7 +607,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1220,14 +1220,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="72" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>45477</v>
       </c>
+      <c r="B34" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1251,7 +1260,7 @@
       </c>
       <c r="F36" s="3">
         <f>SUM(D30:D36)</f>
-        <v>9.375E-2</v>
+        <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4FD0A-0F88-41D8-BE64-FB65CEF4C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D0026-7DEC-4AE6-8A5A-1986077FB1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -197,6 +197,9 @@
       <t>ショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「店長・エリアマネージャーが知っておきたい売上がUPするPOSデータの使い方」</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -1254,13 +1257,22 @@
         <f t="shared" si="1"/>
         <v>45479</v>
       </c>
+      <c r="B36" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F36" s="3">
         <f>SUM(D30:D36)</f>
-        <v>0.13541666666666663</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D0026-7DEC-4AE6-8A5A-1986077FB1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A2DDB-4822-4144-8584-308B73D22E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>書籍「店長・エリアマネージャーが知っておきたい売上がUPするPOSデータの使い方」</t>
+  </si>
+  <si>
+    <t>書籍「店長・エリアマネージャーが知っておきたい売上がUPするPOSデータの使い方」「KPIマーケティング」</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -609,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1252,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>45479</v>
@@ -1285,14 +1289,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>45481</v>
       </c>
+      <c r="B38" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.92708333333333337</v>
+      </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1346,7 +1359,7 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(D37:D43)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A2DDB-4822-4144-8584-308B73D22E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDFAFB9-6994-4A49-BFD7-BA828BC62862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>書籍「店長・エリアマネージャーが知っておきたい売上がUPするPOSデータの使い方」「KPIマーケティング」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「KPIマーケティング」</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -613,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1313,9 +1317,18 @@
         <f t="shared" si="1"/>
         <v>45482</v>
       </c>
+      <c r="B39" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1359,7 +1372,7 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(D37:D43)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0.12500000000000011</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDFAFB9-6994-4A49-BFD7-BA828BC62862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98437185-997C-41D0-9BE9-F4049BFBA777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -207,6 +207,13 @@
   </si>
   <si>
     <t>書籍「KPIマーケティング」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「KPIマーケティング」「実践データマネジメント」</t>
+    <rPh sb="15" eb="17">
+      <t>ジッセン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -618,7 +625,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1336,19 +1343,37 @@
         <f t="shared" si="1"/>
         <v>45483</v>
       </c>
+      <c r="B40" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.3125</v>
+      </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>45484</v>
       </c>
+      <c r="B41" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1372,7 +1397,7 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(D37:D43)</f>
-        <v>0.12500000000000011</v>
+        <v>0.18750000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98437185-997C-41D0-9BE9-F4049BFBA777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C120BC3D-2368-4AEA-BF7D-A856A29527AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1381,9 +1381,18 @@
         <f t="shared" si="1"/>
         <v>45485</v>
       </c>
+      <c r="B42" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.3125</v>
+      </c>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1391,13 +1400,22 @@
         <f t="shared" si="1"/>
         <v>45486</v>
       </c>
+      <c r="B43" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.3125</v>
+      </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F43" s="3">
         <f>SUM(D37:D43)</f>
-        <v>0.18750000000000006</v>
+        <v>0.22916666666666669</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C120BC3D-2368-4AEA-BF7D-A856A29527AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E8F52D-E9A5-496C-9A49-54CE207948EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -625,7 +625,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1428,14 +1428,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>45488</v>
       </c>
+      <c r="B45" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1489,7 +1498,7 @@
       </c>
       <c r="F50" s="3">
         <f>SUM(D44:D50)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E8F52D-E9A5-496C-9A49-54CE207948EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058633D6-08A8-45E6-A54C-663AE57EF4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -213,6 +213,22 @@
     <t>書籍「KPIマーケティング」「実践データマネジメント」</t>
     <rPh sb="15" eb="17">
       <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「達人に学ぶSQL徹底指南書」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タツジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>テッテイシナンショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -625,7 +641,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1452,9 +1468,18 @@
         <f t="shared" si="1"/>
         <v>45489</v>
       </c>
+      <c r="B46" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.9375</v>
+      </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1498,7 +1523,7 @@
       </c>
       <c r="F50" s="3">
         <f>SUM(D44:D50)</f>
-        <v>6.25E-2</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058633D6-08A8-45E6-A54C-663AE57EF4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D07D55-C631-49D5-A29E-B5D804334ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -641,7 +641,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1487,9 +1487,18 @@
         <f t="shared" si="1"/>
         <v>45490</v>
       </c>
+      <c r="B47" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -1523,7 +1532,7 @@
       </c>
       <c r="F50" s="3">
         <f>SUM(D44:D50)</f>
-        <v>0.10416666666666663</v>
+        <v>0.12499999999999989</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D07D55-C631-49D5-A29E-B5D804334ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740306E9-2FF5-4858-BF78-A979530CCC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -229,6 +229,13 @@
     </rPh>
     <rPh sb="11" eb="16">
       <t>テッテイシナンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「実践データマネジメント」</t>
+    <rPh sb="3" eb="5">
+      <t>ジッセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,7 +648,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1506,9 +1513,18 @@
         <f t="shared" si="1"/>
         <v>45491</v>
       </c>
+      <c r="B48" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D48" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -1532,7 +1548,7 @@
       </c>
       <c r="F50" s="3">
         <f>SUM(D44:D50)</f>
-        <v>0.12499999999999989</v>
+        <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740306E9-2FF5-4858-BF78-A979530CCC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7B2081-651D-4B46-8F33-0B945D22A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -648,7 +648,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1532,9 +1532,18 @@
         <f t="shared" si="1"/>
         <v>45492</v>
       </c>
+      <c r="B49" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D49" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -1548,7 +1557,7 @@
       </c>
       <c r="F50" s="3">
         <f>SUM(D44:D50)</f>
-        <v>0.13541666666666663</v>
+        <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Zemi\Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7B2081-651D-4B46-8F33-0B945D22A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40822D8F-0BEC-414C-94F6-D1A290BFE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -647,16 +646,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="35.09765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.08203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>45445</v>
       </c>
@@ -691,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>45446</v>
@@ -710,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>45447</v>
@@ -729,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>45448</v>
@@ -748,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>45449</v>
@@ -767,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>45450</v>
@@ -779,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>45451</v>
@@ -802,7 +801,7 @@
         <v>0.20833333333333348</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>45452</v>
@@ -821,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>45453</v>
@@ -840,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>45454</v>
@@ -859,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>45455</v>
@@ -878,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>45456</v>
@@ -890,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>45457</v>
@@ -909,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>45458</v>
@@ -932,7 +931,7 @@
         <v>0.17361111111111127</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>45459</v>
@@ -951,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>45460</v>
@@ -970,7 +969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>45461</v>
@@ -989,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>45462</v>
@@ -1008,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>45463</v>
@@ -1027,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>45464</v>
@@ -1039,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>45465</v>
@@ -1062,7 +1061,7 @@
         <v>0.2083333333333332</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>45466</v>
@@ -1081,7 +1080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>45467</v>
@@ -1100,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>45468</v>
@@ -1119,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>45469</v>
@@ -1131,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>45470</v>
@@ -1150,7 +1149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>45471</v>
@@ -1169,7 +1168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>45472</v>
@@ -1192,7 +1191,7 @@
         <v>0.15625000000000017</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>45473</v>
@@ -1211,7 +1210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>45474</v>
@@ -1223,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>45475</v>
@@ -1242,7 +1241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>45476</v>
@@ -1261,7 +1260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>45477</v>
@@ -1280,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>45478</v>
@@ -1290,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>45479</v>
@@ -1313,7 +1312,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>45480</v>
@@ -1323,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>45481</v>
@@ -1342,7 +1341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>45482</v>
@@ -1361,7 +1360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>45483</v>
@@ -1380,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>45484</v>
@@ -1399,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>45485</v>
@@ -1418,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>45486</v>
@@ -1441,7 +1440,7 @@
         <v>0.22916666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <f t="shared" si="1"/>
         <v>45487</v>
@@ -1451,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>45488</v>
@@ -1470,7 +1469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>45489</v>
@@ -1489,7 +1488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>45490</v>
@@ -1508,7 +1507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>45491</v>
@@ -1527,7 +1526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>45492</v>
@@ -1546,21 +1545,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>45493</v>
       </c>
+      <c r="B50" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="3">
         <f>SUM(D44:D50)</f>
-        <v>0.14583333333333337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0.15625000000000011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <f t="shared" si="1"/>
         <v>45494</v>
@@ -1570,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <f t="shared" si="1"/>
         <v>45495</v>
@@ -1580,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <f t="shared" si="1"/>
         <v>45496</v>
@@ -1590,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <f t="shared" si="1"/>
         <v>45497</v>
@@ -1600,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
         <v>45498</v>
@@ -1610,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
         <v>45499</v>
@@ -1620,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <f t="shared" si="1"/>
         <v>45500</v>
@@ -1634,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
         <f t="shared" si="1"/>
         <v>45501</v>
@@ -1644,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>45502</v>
@@ -1654,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
         <f t="shared" si="1"/>
         <v>45503</v>
@@ -1664,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
         <f t="shared" si="1"/>
         <v>45504</v>
@@ -1674,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
         <f t="shared" si="1"/>
         <v>45505</v>
@@ -1684,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
         <f t="shared" si="1"/>
         <v>45506</v>
@@ -1694,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
         <v>45507</v>
@@ -1708,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>45508</v>
@@ -1718,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
         <v>45509</v>
@@ -1728,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>45510</v>
@@ -1738,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
         <f t="shared" ref="A68:A92" si="3">A67+1</f>
         <v>45511</v>
@@ -1748,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
         <f t="shared" si="3"/>
         <v>45512</v>
@@ -1758,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2">
         <f t="shared" si="3"/>
         <v>45513</v>
@@ -1768,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
         <f t="shared" si="3"/>
         <v>45514</v>
@@ -1782,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2">
         <f t="shared" si="3"/>
         <v>45515</v>
@@ -1792,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2">
         <f t="shared" si="3"/>
         <v>45516</v>
@@ -1802,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2">
         <f t="shared" si="3"/>
         <v>45517</v>
@@ -1812,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2">
         <f t="shared" si="3"/>
         <v>45518</v>
@@ -1822,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2">
         <f t="shared" si="3"/>
         <v>45519</v>
@@ -1832,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2">
         <f t="shared" si="3"/>
         <v>45520</v>
@@ -1842,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2">
         <f t="shared" si="3"/>
         <v>45521</v>
@@ -1856,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2">
         <f t="shared" si="3"/>
         <v>45522</v>
@@ -1866,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2">
         <f t="shared" si="3"/>
         <v>45523</v>
@@ -1876,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2">
         <f t="shared" si="3"/>
         <v>45524</v>
@@ -1886,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2">
         <f t="shared" si="3"/>
         <v>45525</v>
@@ -1896,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2">
         <f t="shared" si="3"/>
         <v>45526</v>
@@ -1906,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2">
         <f t="shared" si="3"/>
         <v>45527</v>
@@ -1916,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2">
         <f t="shared" si="3"/>
         <v>45528</v>
@@ -1930,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2">
         <f t="shared" si="3"/>
         <v>45529</v>
@@ -1940,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2">
         <f t="shared" si="3"/>
         <v>45530</v>
@@ -1950,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2">
         <f t="shared" si="3"/>
         <v>45531</v>
@@ -1960,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2">
         <f t="shared" si="3"/>
         <v>45532</v>
@@ -1970,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2">
         <f t="shared" si="3"/>
         <v>45533</v>
@@ -1980,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2">
         <f t="shared" si="3"/>
         <v>45534</v>
@@ -1990,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2">
         <f t="shared" si="3"/>
         <v>45535</v>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40822D8F-0BEC-414C-94F6-D1A290BFE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE138AC-5334-4D14-B039-F02F932F02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1573,9 +1573,18 @@
         <f t="shared" si="1"/>
         <v>45494</v>
       </c>
+      <c r="B51" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1639,7 +1648,7 @@
       </c>
       <c r="F57" s="3">
         <f>SUM(D51:D57)</f>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE138AC-5334-4D14-B039-F02F932F02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C670B-967F-477A-A137-7CDECDA49A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -235,6 +225,19 @@
     <t>書籍「実践データマネジメント」</t>
     <rPh sb="3" eb="5">
       <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「実践データマネジメント」,その他SQLの学習</t>
+    <rPh sb="3" eb="5">
+      <t>ジッセン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -647,7 +650,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1592,9 +1595,18 @@
         <f t="shared" si="1"/>
         <v>45495</v>
       </c>
+      <c r="B52" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D52" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1617,14 +1629,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
         <v>45498</v>
       </c>
+      <c r="B55" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D55" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1648,7 +1669,7 @@
       </c>
       <c r="F57" s="3">
         <f>SUM(D51:D57)</f>
-        <v>2.0833333333333259E-2</v>
+        <v>8.3333333333333148E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C670B-967F-477A-A137-7CDECDA49A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084BA53A-EBA2-45F3-8476-6D3172C86BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -238,6 +238,13 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「プリンシプル オブ プログラミング」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -649,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1648,14 +1655,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
         <v>45499</v>
       </c>
+      <c r="B56" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D56" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1669,7 +1685,7 @@
       </c>
       <c r="F57" s="3">
         <f>SUM(D51:D57)</f>
-        <v>8.3333333333333148E-2</v>
+        <v>0.12499999999999978</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084BA53A-EBA2-45F3-8476-6D3172C86BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96764F4-AFA9-4725-82CA-6373352C03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -657,7 +657,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1679,13 +1679,22 @@
         <f t="shared" si="1"/>
         <v>45500</v>
       </c>
+      <c r="B57" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D57" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F57" s="3">
         <f>SUM(D51:D57)</f>
-        <v>0.12499999999999978</v>
+        <v>0.16666666666666641</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96764F4-AFA9-4725-82CA-6373352C03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03374987-B249-4037-9516-01F401824431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -245,6 +245,25 @@
     <t>書籍「プリンシプル オブ プログラミング」</t>
     <rPh sb="0" eb="2">
       <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「達人に学ぶSQL徹底指南書」「実践データマネジメント」、SQL学習</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タツジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>テッテイシナンショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1707,14 +1726,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>45502</v>
       </c>
+      <c r="B59" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D59" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1768,7 +1796,7 @@
       </c>
       <c r="F64" s="3">
         <f>SUM(D58:D64)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03374987-B249-4037-9516-01F401824431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868210D-FEE9-434D-AEBC-395CDBDA30C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -264,6 +264,16 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「マーケティングつながる思考術」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シコウジュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -675,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1760,9 +1770,18 @@
         <f t="shared" si="1"/>
         <v>45504</v>
       </c>
+      <c r="B61" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D61" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1796,7 +1815,7 @@
       </c>
       <c r="F64" s="3">
         <f>SUM(D58:D64)</f>
-        <v>0.125</v>
+        <v>0.13541666666666674</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868210D-FEE9-434D-AEBC-395CDBDA30C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965345A9-8AE4-4C5B-871C-350B098F2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1789,9 +1789,18 @@
         <f t="shared" si="1"/>
         <v>45505</v>
       </c>
+      <c r="B62" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D62" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1815,7 +1824,7 @@
       </c>
       <c r="F64" s="3">
         <f>SUM(D58:D64)</f>
-        <v>0.13541666666666674</v>
+        <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965345A9-8AE4-4C5B-871C-350B098F2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629EC0BB-CB02-4486-AB0E-5A63411539D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="2120" yWindow="1700" windowWidth="14400" windowHeight="9580" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -274,6 +274,19 @@
     </rPh>
     <rPh sb="14" eb="17">
       <t>シコウジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -685,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1813,28 +1826,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
         <v>45507</v>
       </c>
+      <c r="B64" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D64" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F64" s="3">
         <f>SUM(D58:D64)</f>
-        <v>0.14583333333333337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>45508</v>
       </c>
+      <c r="B65" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.94791666666666663</v>
+      </c>
       <c r="D65" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1898,7 +1929,7 @@
       </c>
       <c r="F71" s="3">
         <f>SUM(D65:D71)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629EC0BB-CB02-4486-AB0E-5A63411539D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87250C-A001-41C7-A4B4-1F386189D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="1700" windowWidth="14400" windowHeight="9580" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -699,7 +699,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1878,14 +1878,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>45510</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.96875</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" ref="D67:D92" si="2">C67-B67</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1929,7 +1938,7 @@
       </c>
       <c r="F71" s="3">
         <f>SUM(D65:D71)</f>
-        <v>3.125E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87250C-A001-41C7-A4B4-1F386189D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BE7FD0-0817-4652-AF44-49069635C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -699,7 +699,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1897,14 +1897,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
         <f t="shared" ref="A68:A92" si="3">A67+1</f>
         <v>45511</v>
       </c>
+      <c r="B68" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D68" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1938,7 +1947,7 @@
       </c>
       <c r="F71" s="3">
         <f>SUM(D65:D71)</f>
-        <v>4.166666666666663E-2</v>
+        <v>6.2499999999999889E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BE7FD0-0817-4652-AF44-49069635C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C315695-D5E5-4D55-9E4B-61B91A099D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="2120" yWindow="1700" windowWidth="14400" windowHeight="9580" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1916,14 +1916,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
         <f t="shared" si="3"/>
         <v>45512</v>
       </c>
+      <c r="B69" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D69" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1936,18 +1945,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
         <f t="shared" si="3"/>
         <v>45514</v>
       </c>
+      <c r="B71" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D71" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F71" s="3">
         <f>SUM(D65:D71)</f>
-        <v>6.2499999999999889E-2</v>
+        <v>0.14583333333333326</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C315695-D5E5-4D55-9E4B-61B91A099D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5876AF-662B-4F64-B48F-2A767CD4C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="1700" windowWidth="14400" windowHeight="9580" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-190" yWindow="0" windowWidth="14400" windowHeight="8180" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -249,25 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書籍「達人に学ぶSQL徹底指南書」「実践データマネジメント」、SQL学習</t>
-    <rPh sb="0" eb="2">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タツジン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="11" eb="16">
-      <t>テッテイシナンショ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>書籍「マーケティングつながる思考術」</t>
     <rPh sb="0" eb="2">
       <t>ショセキ</t>
@@ -289,6 +270,44 @@
       <t>カツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」、SQL演習</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「達人に学ぶSQL徹底指南書」「実践データマネジメント」、SQL演習</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タツジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>テッテイシナンショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」</t>
   </si>
 </sst>
 </file>
@@ -699,7 +718,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1765,7 +1784,7 @@
         <v>0.125</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1794,7 +1813,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1842,7 +1861,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F64" s="3">
         <f>SUM(D58:D64)</f>
@@ -1865,7 +1884,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1894,7 +1913,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -1913,7 +1932,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -1983,9 +2002,18 @@
         <f t="shared" si="3"/>
         <v>45516</v>
       </c>
+      <c r="B73" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D73" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2039,7 +2067,7 @@
       </c>
       <c r="F78" s="3">
         <f>SUM(D72:D78)</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5876AF-662B-4F64-B48F-2A767CD4C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADC0A2-C5CE-443A-8B21-984187F0566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-190" yWindow="0" windowWidth="14400" windowHeight="8180" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2">
         <f t="shared" si="3"/>
         <v>45516</v>
@@ -2016,14 +2016,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2">
         <f t="shared" si="3"/>
         <v>45517</v>
       </c>
+      <c r="B74" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D74" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2067,7 +2076,7 @@
       </c>
       <c r="F78" s="3">
         <f>SUM(D72:D78)</f>
-        <v>2.083333333333337E-2</v>
+        <v>0.27083333333333337</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADC0A2-C5CE-443A-8B21-984187F0566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B30EA-26F5-481A-B281-597982FA8C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -308,6 +308,26 @@
   </si>
   <si>
     <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」</t>
+  </si>
+  <si>
+    <t>書籍「実践データマネジメント」,論文執筆</t>
+    <rPh sb="3" eb="5">
+      <t>ジッセン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ロンブンシッピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文執筆</t>
+    <rPh sb="0" eb="4">
+      <t>ロンブンシッピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「実践データマネジメント」</t>
   </si>
 </sst>
 </file>
@@ -717,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2094,9 +2114,18 @@
         <f t="shared" si="3"/>
         <v>45523</v>
       </c>
+      <c r="B80" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D80" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2114,19 +2143,37 @@
         <f t="shared" si="3"/>
         <v>45525</v>
       </c>
+      <c r="B82" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D82" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2">
         <f t="shared" si="3"/>
         <v>45526</v>
       </c>
+      <c r="B83" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="D83" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2150,7 +2197,7 @@
       </c>
       <c r="F85" s="3">
         <f>SUM(D79:D85)</f>
-        <v>0</v>
+        <v>9.3749999999999889E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B30EA-26F5-481A-B281-597982FA8C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E023699-DAF2-4783-B5D5-FD7BA1EB3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -307,9 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」</t>
-  </si>
-  <si>
     <t>書籍「実践データマネジメント」,論文執筆</t>
     <rPh sb="3" eb="5">
       <t>ジッセン</t>
@@ -328,6 +325,17 @@
   </si>
   <si>
     <t>書籍「実践データマネジメント」</t>
+  </si>
+  <si>
+    <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」、論文執筆</t>
+    <rPh sb="26" eb="30">
+      <t>ロンブンシッピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -737,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2033,7 +2041,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2125,7 +2133,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2154,7 +2162,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2173,17 +2181,26 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2">
         <f t="shared" si="3"/>
         <v>45527</v>
       </c>
+      <c r="B84" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="D84" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2197,7 +2214,7 @@
       </c>
       <c r="F85" s="3">
         <f>SUM(D79:D85)</f>
-        <v>9.3749999999999889E-2</v>
+        <v>0.1770833333333332</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2215,19 +2232,37 @@
         <f t="shared" si="3"/>
         <v>45530</v>
       </c>
+      <c r="B87" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D87" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2">
         <f t="shared" si="3"/>
         <v>45531</v>
       </c>
+      <c r="B88" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D88" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2271,7 +2306,7 @@
       </c>
       <c r="F92" s="3">
         <f>SUM(D86:D92)</f>
-        <v>0</v>
+        <v>3.1249999999999889E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E023699-DAF2-4783-B5D5-FD7BA1EB3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEADAC90-055C-4CD2-B1F8-8BF7FEBD9DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2265,14 +2265,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2">
         <f t="shared" si="3"/>
         <v>45532</v>
       </c>
+      <c r="B89" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D89" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2280,9 +2289,18 @@
         <f t="shared" si="3"/>
         <v>45533</v>
       </c>
+      <c r="B90" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D90" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2306,7 +2324,7 @@
       </c>
       <c r="F92" s="3">
         <f>SUM(D86:D92)</f>
-        <v>3.1249999999999889E-2</v>
+        <v>6.2499999999999778E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEADAC90-055C-4CD2-B1F8-8BF7FEBD9DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C746F-044F-4F4E-BBC9-9F51DE7C60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -334,6 +334,22 @@
     <t>書籍「ビッグデータ分析・活用のためのSQLレシピ」、論文執筆</t>
     <rPh sb="26" eb="30">
       <t>ロンブンシッピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「Python実践データ分析課題解決ワークブック」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッセン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>カダイカイケツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
@@ -2303,28 +2319,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2">
         <f t="shared" si="3"/>
         <v>45534</v>
       </c>
+      <c r="B91" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D91" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2">
         <f t="shared" si="3"/>
         <v>45535</v>
       </c>
+      <c r="B92" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D92" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F92" s="3">
         <f>SUM(D86:D92)</f>
-        <v>6.2499999999999778E-2</v>
+        <v>0.14583333333333304</v>
       </c>
     </row>
   </sheetData>

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C746F-044F-4F4E-BBC9-9F51DE7C60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BEB3B0-731E-4217-AF15-FE3605C348AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
+    <sheet name="9月_11月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -761,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2365,4 +2366,1159 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88369DF-00DA-43B4-B9C7-C9D2E1851FA3}">
+  <dimension ref="A1:F92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="35.08203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>45537</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D66" si="0">C3-B3</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+        <v>45538</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>45539</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>45540</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>45541</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>45542</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>SUM(D2:D8)</f>
+        <v>3.1250000000000056E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>45543</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>45544</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>45545</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>45546</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>45547</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>45548</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>45549</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM(D9:D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>45550</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>45551</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>45552</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>45553</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>45554</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>45555</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>45556</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f>SUM(D16:D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>45557</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>45558</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
+        <v>45559</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>45560</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
+        <v>45561</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>45562</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>45563</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f>SUM(D23:D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>45564</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>45565</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>45566</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>45567</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>45568</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>45569</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>45570</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f>SUM(D30:D36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>45571</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>45572</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>45573</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>45574</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <f t="shared" si="1"/>
+        <v>45575</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>45576</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
+        <v>45577</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f>SUM(D37:D43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>45578</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>45579</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>45580</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <f t="shared" si="1"/>
+        <v>45581</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <f t="shared" si="1"/>
+        <v>45582</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2">
+        <f t="shared" si="1"/>
+        <v>45583</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <f t="shared" si="1"/>
+        <v>45584</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <f>SUM(D44:D50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
+        <f t="shared" si="1"/>
+        <v>45585</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <f t="shared" si="1"/>
+        <v>45586</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2">
+        <f t="shared" si="1"/>
+        <v>45587</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>45588</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>45589</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>45590</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>45591</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f>SUM(D51:D57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>45592</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>45593</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>45594</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>45595</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>45596</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2">
+        <f t="shared" si="1"/>
+        <v>45597</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2">
+        <f t="shared" si="1"/>
+        <v>45598</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <f>SUM(D58:D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2">
+        <f t="shared" si="1"/>
+        <v>45599</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>45600</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>45601</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3">
+        <f t="shared" ref="D67:D92" si="2">C67-B67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2">
+        <f t="shared" ref="A68:A92" si="3">A67+1</f>
+        <v>45602</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2">
+        <f t="shared" si="3"/>
+        <v>45603</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2">
+        <f t="shared" si="3"/>
+        <v>45604</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2">
+        <f t="shared" si="3"/>
+        <v>45605</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <f>SUM(D65:D71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2">
+        <f t="shared" si="3"/>
+        <v>45606</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2">
+        <f t="shared" si="3"/>
+        <v>45607</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2">
+        <f t="shared" si="3"/>
+        <v>45608</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="2">
+        <f t="shared" si="3"/>
+        <v>45609</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="2">
+        <f t="shared" si="3"/>
+        <v>45610</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="2">
+        <f t="shared" si="3"/>
+        <v>45611</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="2">
+        <f t="shared" si="3"/>
+        <v>45612</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <f>SUM(D72:D78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="2">
+        <f t="shared" si="3"/>
+        <v>45613</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="2">
+        <f t="shared" si="3"/>
+        <v>45614</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="2">
+        <f t="shared" si="3"/>
+        <v>45615</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="2">
+        <f t="shared" si="3"/>
+        <v>45616</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="2">
+        <f t="shared" si="3"/>
+        <v>45617</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2">
+        <f t="shared" si="3"/>
+        <v>45618</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2">
+        <f t="shared" si="3"/>
+        <v>45619</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <f>SUM(D79:D85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="2">
+        <f t="shared" si="3"/>
+        <v>45620</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="2">
+        <f t="shared" si="3"/>
+        <v>45621</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="2">
+        <f t="shared" si="3"/>
+        <v>45622</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="2">
+        <f t="shared" si="3"/>
+        <v>45623</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="2">
+        <f t="shared" si="3"/>
+        <v>45624</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="2">
+        <f t="shared" si="3"/>
+        <v>45625</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="2">
+        <f t="shared" si="3"/>
+        <v>45626</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <f>SUM(D86:D92)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BEB3B0-731E-4217-AF15-FE3605C348AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14EBDF6-CC65-418F-BA77-28CE85BACEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -351,6 +351,39 @@
     </rPh>
     <rPh sb="16" eb="20">
       <t>カダイカイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「実践データマネジメント」「はじめての統計的因果推論」</t>
+    <rPh sb="21" eb="28">
+      <t>トウケイテキインガスイロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「はじめての統計的因果推論」</t>
+    <rPh sb="8" eb="15">
+      <t>トウケイテキインガスイロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「達人に学ぶSQL徹底指導指南書」、SQL演習</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タツジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="11" eb="18">
+      <t>テッテイシドウシナンショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
@@ -2373,7 +2406,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2452,23 +2485,37 @@
         <f t="shared" si="1"/>
         <v>45539</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>45540</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2476,11 +2523,18 @@
         <f t="shared" si="1"/>
         <v>45541</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3">
+        <v>0.96875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2496,19 +2550,26 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>3.1250000000000056E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>7.2916666666666574E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>45543</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2584,7 +2645,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14EBDF6-CC65-418F-BA77-28CE85BACEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DB4CE-2DE9-4C6A-A2BE-519756ACA23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -2406,7 +2406,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2577,11 +2577,18 @@
         <f t="shared" si="1"/>
         <v>45544</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.96875</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2645,7 +2652,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>0.125</v>
+        <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DB4CE-2DE9-4C6A-A2BE-519756ACA23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FABDE7-81C0-4F5A-AD06-0D87CDB09709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
     <sheet name="9月_11月" sheetId="2" r:id="rId2"/>
+    <sheet name="12月_2月" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -384,6 +385,16 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「因果推論」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>インガスイロン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -795,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC2075-8DC7-4EA0-9E69-4263732BF63B}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2405,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88369DF-00DA-43B4-B9C7-C9D2E1851FA3}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3589,4 +3600,1150 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1699594-A38C-43D1-84D1-A2F1179A4F1C}">
+  <dimension ref="A1:F92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="35.08203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2-B2</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>45628</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D66" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+        <v>45629</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>45630</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>45631</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>45632</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>45633</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>SUM(D2:D8)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>45634</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>45636</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>45637</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>45638</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>45639</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>45640</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM(D9:D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>45641</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>45642</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>45643</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>45644</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>45645</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>45646</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>45647</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f>SUM(D16:D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>45648</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>45649</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
+        <v>45650</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>45651</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
+        <v>45652</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>45653</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>45654</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f>SUM(D23:D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>45655</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>45656</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>45657</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>45658</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>45660</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>45661</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f>SUM(D30:D36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>45662</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>45663</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>45664</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>45665</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <f t="shared" si="1"/>
+        <v>45666</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>45667</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
+        <v>45668</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f>SUM(D37:D43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>45669</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>45670</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>45671</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <f t="shared" si="1"/>
+        <v>45672</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <f t="shared" si="1"/>
+        <v>45673</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2">
+        <f t="shared" si="1"/>
+        <v>45674</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <f t="shared" si="1"/>
+        <v>45675</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <f>SUM(D44:D50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
+        <f t="shared" si="1"/>
+        <v>45676</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <f t="shared" si="1"/>
+        <v>45677</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2">
+        <f t="shared" si="1"/>
+        <v>45678</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>45679</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>45680</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>45681</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>45682</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f>SUM(D51:D57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>45683</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>45684</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>45685</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>45686</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>45687</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2">
+        <f t="shared" si="1"/>
+        <v>45688</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2">
+        <f t="shared" si="1"/>
+        <v>45689</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <f>SUM(D58:D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2">
+        <f t="shared" si="1"/>
+        <v>45690</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>45691</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>45692</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3">
+        <f t="shared" ref="D67:D92" si="2">C67-B67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2">
+        <f t="shared" ref="A68:A92" si="3">A67+1</f>
+        <v>45693</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2">
+        <f t="shared" si="3"/>
+        <v>45694</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2">
+        <f t="shared" si="3"/>
+        <v>45695</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2">
+        <f t="shared" si="3"/>
+        <v>45696</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <f>SUM(D65:D71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2">
+        <f t="shared" si="3"/>
+        <v>45697</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2">
+        <f t="shared" si="3"/>
+        <v>45698</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2">
+        <f t="shared" si="3"/>
+        <v>45699</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="2">
+        <f t="shared" si="3"/>
+        <v>45700</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="2">
+        <f t="shared" si="3"/>
+        <v>45701</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="2">
+        <f t="shared" si="3"/>
+        <v>45702</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="2">
+        <f t="shared" si="3"/>
+        <v>45703</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <f>SUM(D72:D78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="2">
+        <f t="shared" si="3"/>
+        <v>45704</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="2">
+        <f t="shared" si="3"/>
+        <v>45705</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="2">
+        <f t="shared" si="3"/>
+        <v>45706</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="2">
+        <f t="shared" si="3"/>
+        <v>45707</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="2">
+        <f t="shared" si="3"/>
+        <v>45708</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2">
+        <f t="shared" si="3"/>
+        <v>45709</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2">
+        <f t="shared" si="3"/>
+        <v>45710</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <f>SUM(D79:D85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="2">
+        <f t="shared" si="3"/>
+        <v>45711</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="2">
+        <f t="shared" si="3"/>
+        <v>45712</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="2">
+        <f t="shared" si="3"/>
+        <v>45713</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="2">
+        <f t="shared" si="3"/>
+        <v>45714</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="2">
+        <f t="shared" si="3"/>
+        <v>45715</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="2">
+        <f t="shared" si="3"/>
+        <v>45716</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="2">
+        <f t="shared" si="3"/>
+        <v>45717</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <f>SUM(D86:D92)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FABDE7-81C0-4F5A-AD06-0D87CDB09709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E575D-4099-4C78-8CAB-10527EC06C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3653,11 +3653,18 @@
         <f>A2+1</f>
         <v>45628</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3721,7 +3728,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>4.166666666666663E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E575D-4099-4C78-8CAB-10527EC06C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8ED64-C22A-4D33-ADF3-4846E7E63A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3606,7 +3606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1699594-A38C-43D1-84D1-A2F1179A4F1C}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3684,11 +3686,18 @@
         <f t="shared" si="1"/>
         <v>45630</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3728,7 +3737,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8ED64-C22A-4D33-ADF3-4846E7E63A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317F705-DB3E-415C-B1E2-F0351F0FFE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="8170" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -395,6 +395,19 @@
     </rPh>
     <rPh sb="3" eb="7">
       <t>インガスイロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「SQL緊急救急室」</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キュウキュウシツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3607,7 +3620,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3705,11 +3718,18 @@
         <f t="shared" si="1"/>
         <v>45631</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3717,11 +3737,18 @@
         <f t="shared" si="1"/>
         <v>45632</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3729,15 +3756,22 @@
         <f t="shared" si="1"/>
         <v>45633</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F8" s="3">
         <f>SUM(D2:D8)</f>
-        <v>8.3333333333333259E-2</v>
+        <v>0.14583333333333315</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317F705-DB3E-415C-B1E2-F0351F0FFE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1160E4E-514C-4003-B92D-B8D631F13785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="8170" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3620,7 +3620,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3779,11 +3779,18 @@
         <f t="shared" si="1"/>
         <v>45634</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.9375</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3859,7 +3866,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1160E4E-514C-4003-B92D-B8D631F13785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704FC63D-4008-4742-BBB3-11FA7C5F970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="8170" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
   <sheets>
     <sheet name="6月_8月" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3619,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1699594-A38C-43D1-84D1-A2F1179A4F1C}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3822,11 +3822,18 @@
         <f t="shared" si="1"/>
         <v>45637</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3866,7 +3873,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>2.083333333333337E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Study/学習記録.xlsx
+++ b/Study/学習記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Zemi\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704FC63D-4008-4742-BBB3-11FA7C5F970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B531E-148D-4A7F-BF71-3831015E4AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{C9FD6BD0-72C7-481C-BD89-5047BF3B7127}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3620,7 +3620,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3841,11 +3841,18 @@
         <f t="shared" si="1"/>
         <v>45638</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3873,7 +3880,7 @@
       </c>
       <c r="F15" s="3">
         <f>SUM(D9:D15)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
